--- a/agent/qadb.xlsx
+++ b/agent/qadb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MaaYuan\agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC5C04-B47C-46DE-993D-B08741741ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC42F773-3570-4615-A4E0-3F7BA30F1FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="选择题" sheetId="1" r:id="rId1"/>
@@ -7233,10 +7233,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>吸煙/喝酒/燙頭（多選）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>吸煙</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7742,6 +7738,10 @@
   </si>
   <si>
     <t>匆忙离开/匆忙離開</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸菸</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -9364,14 +9364,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.78515625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="81" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" style="82" customWidth="1"/>
-    <col min="4" max="4" width="30.2109375" style="83" customWidth="1"/>
-    <col min="5" max="8" width="10.78515625" style="84" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="81" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="82" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="83" customWidth="1"/>
+    <col min="5" max="8" width="10.77734375" style="84" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
@@ -11948,15 +11948,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="81" customWidth="1"/>
-    <col min="2" max="2" width="7.92578125" style="81" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="6.0703125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="81" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="81" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="83" customWidth="1"/>
     <col min="5" max="5" width="5" style="83" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="83" customWidth="1"/>
-    <col min="7" max="7" width="4.0703125" style="82" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="83" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
@@ -13913,7 +13913,7 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9"/>
     <col min="2" max="2" width="64"/>
@@ -16181,12 +16181,12 @@
   </sheetPr>
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D47" sqref="D47"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16" hidden="1"/>
     <col min="2" max="2" width="10"/>
@@ -18059,7 +18059,7 @@
         <v>1199</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E47" s="36" t="s">
         <v>1201</v>
@@ -28586,16 +28586,16 @@
         <v>2242</v>
       </c>
       <c r="D305" s="69" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E305" s="36" t="s">
         <v>2243</v>
-      </c>
-      <c r="E305" s="36" t="s">
-        <v>2244</v>
       </c>
       <c r="F305" s="36" t="s">
         <v>1314</v>
       </c>
       <c r="G305" s="36" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="H305" s="36" t="s">
         <v>1316</v>
@@ -28624,13 +28624,13 @@
         <v>1988</v>
       </c>
       <c r="C306" s="36" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D306" s="36" t="s">
         <v>1318</v>
       </c>
       <c r="E306" s="36" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F306" s="36" t="s">
         <v>1320</v>
@@ -28639,7 +28639,7 @@
         <v>1318</v>
       </c>
       <c r="H306" s="36" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="I306" t="s">
         <v>616</v>
@@ -28665,7 +28665,7 @@
         <v>1988</v>
       </c>
       <c r="C307" s="36" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D307" s="36" t="s">
         <v>1323</v>
@@ -28706,7 +28706,7 @@
         <v>1988</v>
       </c>
       <c r="C308" s="36" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D308" s="36" t="s">
         <v>1328</v>
@@ -28715,10 +28715,10 @@
         <v>1328</v>
       </c>
       <c r="F308" s="36" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G308" s="36" t="s">
         <v>2251</v>
-      </c>
-      <c r="G308" s="36" t="s">
-        <v>2252</v>
       </c>
       <c r="H308" s="36" t="s">
         <v>1331</v>
@@ -28747,22 +28747,22 @@
         <v>1988</v>
       </c>
       <c r="C309" s="36" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D309" s="36" t="s">
         <v>2253</v>
       </c>
-      <c r="D309" s="36" t="s">
+      <c r="E309" s="36" t="s">
         <v>2254</v>
       </c>
-      <c r="E309" s="36" t="s">
-        <v>2255</v>
-      </c>
       <c r="F309" s="36" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="G309" s="36" t="s">
         <v>1335</v>
       </c>
       <c r="H309" s="36" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="I309" t="s">
         <v>616</v>
@@ -28788,22 +28788,22 @@
         <v>1988</v>
       </c>
       <c r="C310" s="36" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D310" s="36" t="s">
         <v>2257</v>
       </c>
-      <c r="D310" s="36" t="s">
+      <c r="E310" s="36" t="s">
         <v>2258</v>
       </c>
-      <c r="E310" s="36" t="s">
+      <c r="F310" s="36" t="s">
         <v>2259</v>
       </c>
-      <c r="F310" s="36" t="s">
+      <c r="G310" s="36" t="s">
         <v>2260</v>
       </c>
-      <c r="G310" s="36" t="s">
-        <v>2261</v>
-      </c>
       <c r="H310" s="36" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="I310" t="s">
         <v>616</v>
@@ -28829,22 +28829,22 @@
         <v>1988</v>
       </c>
       <c r="C311" s="36" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D311" s="36" t="s">
         <v>2262</v>
       </c>
-      <c r="D311" s="36" t="s">
+      <c r="E311" s="36" t="s">
         <v>2263</v>
       </c>
-      <c r="E311" s="36" t="s">
+      <c r="F311" s="36" t="s">
         <v>2264</v>
       </c>
-      <c r="F311" s="36" t="s">
+      <c r="G311" s="36" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H311" s="36" t="s">
         <v>2265</v>
-      </c>
-      <c r="G311" s="36" t="s">
-        <v>2263</v>
-      </c>
-      <c r="H311" s="36" t="s">
-        <v>2266</v>
       </c>
       <c r="I311" t="s">
         <v>616</v>
@@ -28870,7 +28870,7 @@
         <v>1988</v>
       </c>
       <c r="C312" s="36" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D312" s="36" t="s">
         <v>1023</v>
@@ -28882,10 +28882,10 @@
         <v>1023</v>
       </c>
       <c r="G312" s="36" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H312" s="36" t="s">
         <v>2268</v>
-      </c>
-      <c r="H312" s="36" t="s">
-        <v>2269</v>
       </c>
       <c r="I312" t="s">
         <v>616</v>
@@ -28914,19 +28914,19 @@
         <v>2132</v>
       </c>
       <c r="D313" s="36" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E313" s="36" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F313" s="36" t="s">
         <v>2270</v>
-      </c>
-      <c r="F313" s="36" t="s">
-        <v>2271</v>
       </c>
       <c r="G313" s="36" t="s">
         <v>1353</v>
       </c>
       <c r="H313" s="36" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="I313" t="s">
         <v>616</v>
@@ -28952,16 +28952,16 @@
         <v>1988</v>
       </c>
       <c r="C314" s="36" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D314" s="36" t="s">
         <v>2272</v>
-      </c>
-      <c r="D314" s="36" t="s">
-        <v>2273</v>
       </c>
       <c r="E314" s="36" t="s">
         <v>1356</v>
       </c>
       <c r="F314" s="36" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="G314" s="36" t="s">
         <v>1357</v>
@@ -28993,22 +28993,22 @@
         <v>1988</v>
       </c>
       <c r="C315" s="36" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D315" s="36" t="s">
         <v>2274</v>
       </c>
-      <c r="D315" s="36" t="s">
+      <c r="E315" s="36" t="s">
         <v>2275</v>
       </c>
-      <c r="E315" s="36" t="s">
+      <c r="F315" s="36" t="s">
         <v>2276</v>
       </c>
-      <c r="F315" s="36" t="s">
+      <c r="G315" s="36" t="s">
         <v>2277</v>
       </c>
-      <c r="G315" s="36" t="s">
-        <v>2278</v>
-      </c>
       <c r="H315" s="36" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="I315" t="s">
         <v>616</v>
@@ -29034,7 +29034,7 @@
         <v>1988</v>
       </c>
       <c r="C316" s="36" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D316" s="36" t="s">
         <v>2018</v>
@@ -29049,7 +29049,7 @@
         <v>2018</v>
       </c>
       <c r="H316" s="36" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="I316" t="s">
         <v>616</v>
@@ -29075,7 +29075,7 @@
         <v>1988</v>
       </c>
       <c r="C317" s="36" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D317" s="36" t="s">
         <v>1054</v>
@@ -29116,7 +29116,7 @@
         <v>1988</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D318" s="36" t="s">
         <v>1254</v>
@@ -29157,7 +29157,7 @@
         <v>1988</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D319" s="36" t="s">
         <v>1370</v>
@@ -29172,7 +29172,7 @@
         <v>1023</v>
       </c>
       <c r="H319" s="36" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="I319" t="s">
         <v>616</v>
@@ -29198,7 +29198,7 @@
         <v>1988</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D320" s="36" t="s">
         <v>2021</v>
@@ -29239,22 +29239,22 @@
         <v>1988</v>
       </c>
       <c r="C321" s="36" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D321" s="36" t="s">
         <v>2285</v>
       </c>
-      <c r="D321" s="36" t="s">
+      <c r="E321" s="36" t="s">
         <v>2286</v>
       </c>
-      <c r="E321" s="36" t="s">
+      <c r="F321" s="36" t="s">
         <v>2287</v>
       </c>
-      <c r="F321" s="36" t="s">
+      <c r="G321" s="36" t="s">
         <v>2288</v>
       </c>
-      <c r="G321" s="36" t="s">
-        <v>2289</v>
-      </c>
       <c r="H321" s="36" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="I321" t="s">
         <v>616</v>
@@ -29280,22 +29280,22 @@
         <v>1988</v>
       </c>
       <c r="C322" s="36" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D322" s="36" t="s">
         <v>2290</v>
       </c>
-      <c r="D322" s="36" t="s">
+      <c r="E322" s="36" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F322" s="36" t="s">
         <v>2291</v>
       </c>
-      <c r="E322" s="36" t="s">
-        <v>2291</v>
-      </c>
-      <c r="F322" s="36" t="s">
+      <c r="G322" s="36" t="s">
         <v>2292</v>
       </c>
-      <c r="G322" s="36" t="s">
+      <c r="H322" s="36" t="s">
         <v>2293</v>
-      </c>
-      <c r="H322" s="36" t="s">
-        <v>2294</v>
       </c>
       <c r="I322" t="s">
         <v>616</v>
@@ -29321,22 +29321,22 @@
         <v>1988</v>
       </c>
       <c r="C323" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D323" s="36" t="s">
         <v>2295</v>
       </c>
-      <c r="D323" s="36" t="s">
+      <c r="E323" s="36" t="s">
         <v>2296</v>
       </c>
-      <c r="E323" s="36" t="s">
+      <c r="F323" s="36" t="s">
         <v>2297</v>
       </c>
-      <c r="F323" s="36" t="s">
+      <c r="G323" s="36" t="s">
+        <v>2295</v>
+      </c>
+      <c r="H323" s="36" t="s">
         <v>2298</v>
-      </c>
-      <c r="G323" s="36" t="s">
-        <v>2296</v>
-      </c>
-      <c r="H323" s="36" t="s">
-        <v>2299</v>
       </c>
       <c r="I323" t="s">
         <v>616</v>
@@ -29362,22 +29362,22 @@
         <v>1988</v>
       </c>
       <c r="C324" s="36" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D324" s="36" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E324" s="36" t="s">
         <v>2300</v>
       </c>
-      <c r="E324" s="36" t="s">
+      <c r="F324" s="36" t="s">
         <v>2301</v>
       </c>
-      <c r="F324" s="36" t="s">
+      <c r="G324" s="36" t="s">
         <v>2302</v>
       </c>
-      <c r="G324" s="36" t="s">
-        <v>2303</v>
-      </c>
       <c r="H324" s="36" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="I324" t="s">
         <v>616</v>
@@ -29403,22 +29403,22 @@
         <v>1988</v>
       </c>
       <c r="C325" s="36" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D325" s="36" t="s">
         <v>2304</v>
       </c>
-      <c r="D325" s="36" t="s">
+      <c r="E325" s="36" t="s">
         <v>2305</v>
       </c>
-      <c r="E325" s="36" t="s">
+      <c r="F325" s="36" t="s">
         <v>2306</v>
       </c>
-      <c r="F325" s="36" t="s">
+      <c r="G325" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H325" s="36" t="s">
         <v>2307</v>
-      </c>
-      <c r="G325" s="36" t="s">
-        <v>2305</v>
-      </c>
-      <c r="H325" s="36" t="s">
-        <v>2308</v>
       </c>
       <c r="I325" t="s">
         <v>616</v>
@@ -29444,22 +29444,22 @@
         <v>1988</v>
       </c>
       <c r="C326" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D326" s="36" t="s">
         <v>2309</v>
       </c>
-      <c r="D326" s="36" t="s">
+      <c r="E326" s="36" t="s">
         <v>2310</v>
       </c>
-      <c r="E326" s="36" t="s">
+      <c r="F326" s="36" t="s">
         <v>2311</v>
       </c>
-      <c r="F326" s="36" t="s">
+      <c r="G326" s="36" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H326" s="36" t="s">
         <v>2312</v>
-      </c>
-      <c r="G326" s="36" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H326" s="36" t="s">
-        <v>2313</v>
       </c>
       <c r="I326" t="s">
         <v>616</v>
@@ -29485,22 +29485,22 @@
         <v>1988</v>
       </c>
       <c r="C327" s="36" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D327" s="36" t="s">
         <v>2314</v>
       </c>
-      <c r="D327" s="36" t="s">
+      <c r="E327" s="36" t="s">
         <v>2315</v>
       </c>
-      <c r="E327" s="36" t="s">
+      <c r="F327" s="36" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G327" s="36" t="s">
         <v>2316</v>
       </c>
-      <c r="F327" s="36" t="s">
-        <v>2315</v>
-      </c>
-      <c r="G327" s="36" t="s">
+      <c r="H327" s="36" t="s">
         <v>2317</v>
-      </c>
-      <c r="H327" s="36" t="s">
-        <v>2318</v>
       </c>
       <c r="I327" t="s">
         <v>616</v>
@@ -29526,22 +29526,22 @@
         <v>1988</v>
       </c>
       <c r="C328" s="36" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D328" s="36" t="s">
         <v>2319</v>
       </c>
-      <c r="D328" s="36" t="s">
+      <c r="E328" s="36" t="s">
         <v>2320</v>
       </c>
-      <c r="E328" s="36" t="s">
+      <c r="F328" s="36" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G328" s="36" t="s">
         <v>2321</v>
       </c>
-      <c r="F328" s="36" t="s">
-        <v>2320</v>
-      </c>
-      <c r="G328" s="36" t="s">
+      <c r="H328" s="36" t="s">
         <v>2322</v>
-      </c>
-      <c r="H328" s="36" t="s">
-        <v>2323</v>
       </c>
       <c r="I328" t="s">
         <v>616</v>
@@ -29567,22 +29567,22 @@
         <v>1988</v>
       </c>
       <c r="C329" s="36" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D329" s="36" t="s">
         <v>2324</v>
       </c>
-      <c r="D329" s="36" t="s">
+      <c r="E329" s="36" t="s">
         <v>2325</v>
       </c>
-      <c r="E329" s="36" t="s">
+      <c r="F329" s="36" t="s">
         <v>2326</v>
       </c>
-      <c r="F329" s="36" t="s">
+      <c r="G329" s="36" t="s">
+        <v>2324</v>
+      </c>
+      <c r="H329" s="36" t="s">
         <v>2327</v>
-      </c>
-      <c r="G329" s="36" t="s">
-        <v>2325</v>
-      </c>
-      <c r="H329" s="36" t="s">
-        <v>2328</v>
       </c>
       <c r="I329" t="s">
         <v>616</v>
@@ -29608,22 +29608,22 @@
         <v>1988</v>
       </c>
       <c r="C330" s="36" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D330" s="36" t="s">
         <v>2329</v>
       </c>
-      <c r="D330" s="36" t="s">
+      <c r="E330" s="36" t="s">
         <v>2330</v>
       </c>
-      <c r="E330" s="36" t="s">
+      <c r="F330" s="36" t="s">
         <v>2331</v>
       </c>
-      <c r="F330" s="36" t="s">
+      <c r="G330" s="36" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H330" s="36" t="s">
         <v>2332</v>
-      </c>
-      <c r="G330" s="36" t="s">
-        <v>2330</v>
-      </c>
-      <c r="H330" s="36" t="s">
-        <v>2333</v>
       </c>
       <c r="I330" t="s">
         <v>616</v>
@@ -29649,7 +29649,7 @@
         <v>1988</v>
       </c>
       <c r="C331" s="36" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D331" s="36" t="s">
         <v>1424</v>
@@ -29690,7 +29690,7 @@
         <v>1988</v>
       </c>
       <c r="C332" s="36" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D332" s="36" t="s">
         <v>1054</v>
@@ -29717,7 +29717,7 @@
         <v>736</v>
       </c>
       <c r="L332" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="M332" t="s">
         <v>619</v>
@@ -29731,7 +29731,7 @@
         <v>1988</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D333" s="36" t="s">
         <v>1429</v>
@@ -29743,10 +29743,10 @@
         <v>1429</v>
       </c>
       <c r="G333" s="36" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H333" s="36" t="s">
         <v>2338</v>
-      </c>
-      <c r="H333" s="36" t="s">
-        <v>2339</v>
       </c>
       <c r="I333" t="s">
         <v>616</v>
@@ -29772,22 +29772,22 @@
         <v>1988</v>
       </c>
       <c r="C334" s="36" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D334" s="36" t="s">
         <v>2340</v>
       </c>
-      <c r="D334" s="36" t="s">
+      <c r="E334" s="36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F334" s="36" t="s">
         <v>2341</v>
       </c>
-      <c r="E334" s="36" t="s">
-        <v>2341</v>
-      </c>
-      <c r="F334" s="36" t="s">
+      <c r="G334" s="36" t="s">
         <v>2342</v>
       </c>
-      <c r="G334" s="36" t="s">
+      <c r="H334" s="36" t="s">
         <v>2343</v>
-      </c>
-      <c r="H334" s="36" t="s">
-        <v>2344</v>
       </c>
       <c r="I334" t="s">
         <v>616</v>
@@ -29813,16 +29813,16 @@
         <v>1988</v>
       </c>
       <c r="C335" s="36" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D335" s="36" t="s">
         <v>2345</v>
       </c>
-      <c r="D335" s="36" t="s">
+      <c r="E335" s="36" t="s">
         <v>2346</v>
       </c>
-      <c r="E335" s="36" t="s">
-        <v>2347</v>
-      </c>
       <c r="F335" s="36" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="G335" s="36" t="s">
         <v>1441</v>
@@ -29854,7 +29854,7 @@
         <v>1988</v>
       </c>
       <c r="C336" s="36" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D336" s="36" t="s">
         <v>1443</v>
@@ -29863,13 +29863,13 @@
         <v>1444</v>
       </c>
       <c r="F336" s="36" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="G336" s="36" t="s">
         <v>1443</v>
       </c>
       <c r="H336" s="36" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="I336" t="s">
         <v>616</v>
@@ -29881,7 +29881,7 @@
         <v>740</v>
       </c>
       <c r="L336" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M336" t="s">
         <v>619</v>
@@ -29895,7 +29895,7 @@
         <v>1988</v>
       </c>
       <c r="C337" s="36" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D337" s="69" t="s">
         <v>1448</v>
@@ -29904,13 +29904,13 @@
         <v>1448</v>
       </c>
       <c r="F337" s="36" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G337" s="36" t="s">
         <v>2353</v>
       </c>
-      <c r="G337" s="36" t="s">
+      <c r="H337" s="36" t="s">
         <v>2354</v>
-      </c>
-      <c r="H337" s="36" t="s">
-        <v>2355</v>
       </c>
       <c r="I337" t="s">
         <v>616</v>
@@ -29936,22 +29936,22 @@
         <v>1988</v>
       </c>
       <c r="C338" s="36" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D338" s="36" t="s">
         <v>2356</v>
       </c>
-      <c r="D338" s="36" t="s">
+      <c r="E338" s="36" t="s">
         <v>2357</v>
       </c>
-      <c r="E338" s="36" t="s">
+      <c r="F338" s="36" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G338" s="36" t="s">
         <v>2358</v>
       </c>
-      <c r="F338" s="36" t="s">
-        <v>2357</v>
-      </c>
-      <c r="G338" s="36" t="s">
+      <c r="H338" s="36" t="s">
         <v>2359</v>
-      </c>
-      <c r="H338" s="36" t="s">
-        <v>2360</v>
       </c>
       <c r="I338" t="s">
         <v>616</v>
@@ -29977,7 +29977,7 @@
         <v>1988</v>
       </c>
       <c r="C339" s="36" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D339" s="36" t="s">
         <v>1458</v>
@@ -29986,10 +29986,10 @@
         <v>1458</v>
       </c>
       <c r="F339" s="36" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G339" s="36" t="s">
         <v>2362</v>
-      </c>
-      <c r="G339" s="36" t="s">
-        <v>2363</v>
       </c>
       <c r="H339" s="36" t="s">
         <v>1461</v>
@@ -30018,22 +30018,22 @@
         <v>1988</v>
       </c>
       <c r="C340" s="36" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D340" s="69" t="s">
         <v>2364</v>
-      </c>
-      <c r="D340" s="69" t="s">
-        <v>2365</v>
       </c>
       <c r="E340" s="36" t="s">
         <v>1464</v>
       </c>
       <c r="F340" s="36" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G340" s="36" t="s">
         <v>2366</v>
       </c>
-      <c r="G340" s="36" t="s">
+      <c r="H340" s="36" t="s">
         <v>2367</v>
-      </c>
-      <c r="H340" s="36" t="s">
-        <v>2368</v>
       </c>
       <c r="I340" t="s">
         <v>616</v>
@@ -30088,31 +30088,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.78515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.78515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" style="12" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="3.2109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="4.78515625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" style="12" customWidth="1"/>
-    <col min="17" max="18" width="6.5703125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1"/>
-    <col min="22" max="22" width="4.78515625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="12" customWidth="1"/>
-    <col min="24" max="25" width="6.5703125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="12" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" style="12" customWidth="1"/>
+    <col min="10" max="11" width="6.5546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="3.21875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" style="12" customWidth="1"/>
+    <col min="17" max="18" width="6.5546875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="12" customWidth="1"/>
+    <col min="24" max="25" width="6.5546875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
@@ -31243,7 +31243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
       <c r="A1" s="31" t="s">
@@ -31764,7 +31764,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="12.75">
+    <row r="32" spans="2:16" ht="13.2">
       <c r="C32" s="35" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -31774,7 +31774,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="33" spans="3:16" ht="12.75">
+    <row r="33" spans="3:16" ht="13.2">
       <c r="C33" s="35" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -31784,7 +31784,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="12.75">
+    <row r="34" spans="3:16" ht="13.2">
       <c r="C34" s="35" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -31794,7 +31794,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="35" spans="3:16" ht="12.75">
+    <row r="35" spans="3:16" ht="13.2">
       <c r="C35" s="35" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -31804,7 +31804,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="36" spans="3:16" ht="12.75">
+    <row r="36" spans="3:16" ht="13.2">
       <c r="C36" s="35" t="str">
         <f t="shared" ref="C36:C67" si="2">""""&amp;A36&amp;""":"""&amp;B36&amp;""","</f>
         <v>"":"",</v>
@@ -31814,7 +31814,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="37" spans="3:16" ht="12.75">
+    <row r="37" spans="3:16" ht="13.2">
       <c r="C37" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31824,7 +31824,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="38" spans="3:16" ht="12.75">
+    <row r="38" spans="3:16" ht="13.2">
       <c r="C38" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31834,7 +31834,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="39" spans="3:16" ht="12.75">
+    <row r="39" spans="3:16" ht="13.2">
       <c r="C39" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31844,7 +31844,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="12.75">
+    <row r="40" spans="3:16" ht="13.2">
       <c r="C40" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31854,7 +31854,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="41" spans="3:16" ht="12.75">
+    <row r="41" spans="3:16" ht="13.2">
       <c r="C41" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31864,7 +31864,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="42" spans="3:16" ht="12.75">
+    <row r="42" spans="3:16" ht="13.2">
       <c r="C42" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31874,7 +31874,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="43" spans="3:16" ht="12.75">
+    <row r="43" spans="3:16" ht="13.2">
       <c r="C43" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31884,7 +31884,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="44" spans="3:16" ht="12.75">
+    <row r="44" spans="3:16" ht="13.2">
       <c r="C44" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31894,7 +31894,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="45" spans="3:16" ht="12.75">
+    <row r="45" spans="3:16" ht="13.2">
       <c r="C45" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31904,7 +31904,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="46" spans="3:16" ht="12.75">
+    <row r="46" spans="3:16" ht="13.2">
       <c r="C46" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31914,7 +31914,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="47" spans="3:16" ht="12.75">
+    <row r="47" spans="3:16" ht="13.2">
       <c r="C47" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31924,7 +31924,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="48" spans="3:16" ht="12.75">
+    <row r="48" spans="3:16" ht="13.2">
       <c r="C48" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31934,7 +31934,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="49" spans="3:16" ht="12.75">
+    <row r="49" spans="3:16" ht="13.2">
       <c r="C49" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31944,7 +31944,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="50" spans="3:16" ht="12.75">
+    <row r="50" spans="3:16" ht="13.2">
       <c r="C50" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31954,7 +31954,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="51" spans="3:16" ht="12.75">
+    <row r="51" spans="3:16" ht="13.2">
       <c r="C51" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31964,7 +31964,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="52" spans="3:16" ht="12.75">
+    <row r="52" spans="3:16" ht="13.2">
       <c r="C52" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31974,7 +31974,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="53" spans="3:16" ht="12.75">
+    <row r="53" spans="3:16" ht="13.2">
       <c r="C53" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31984,7 +31984,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="54" spans="3:16" ht="12.75">
+    <row r="54" spans="3:16" ht="13.2">
       <c r="C54" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -31994,7 +31994,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="55" spans="3:16" ht="12.75">
+    <row r="55" spans="3:16" ht="13.2">
       <c r="C55" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32004,7 +32004,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="56" spans="3:16" ht="12.75">
+    <row r="56" spans="3:16" ht="13.2">
       <c r="C56" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32014,7 +32014,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="57" spans="3:16" ht="12.75">
+    <row r="57" spans="3:16" ht="13.2">
       <c r="C57" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32024,7 +32024,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="58" spans="3:16" ht="12.75">
+    <row r="58" spans="3:16" ht="13.2">
       <c r="C58" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32034,7 +32034,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="59" spans="3:16" ht="12.75">
+    <row r="59" spans="3:16" ht="13.2">
       <c r="C59" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32044,7 +32044,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="60" spans="3:16" ht="12.75">
+    <row r="60" spans="3:16" ht="13.2">
       <c r="C60" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32054,7 +32054,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="61" spans="3:16" ht="12.75">
+    <row r="61" spans="3:16" ht="13.2">
       <c r="C61" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32064,7 +32064,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="62" spans="3:16" ht="12.75">
+    <row r="62" spans="3:16" ht="13.2">
       <c r="C62" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32074,7 +32074,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="63" spans="3:16" ht="12.75">
+    <row r="63" spans="3:16" ht="13.2">
       <c r="C63" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32084,7 +32084,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="64" spans="3:16" ht="12.75">
+    <row r="64" spans="3:16" ht="13.2">
       <c r="C64" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32094,7 +32094,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="65" spans="3:16" ht="12.75">
+    <row r="65" spans="3:16" ht="13.2">
       <c r="C65" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32104,7 +32104,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="66" spans="3:16" ht="12.75">
+    <row r="66" spans="3:16" ht="13.2">
       <c r="C66" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32114,7 +32114,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="67" spans="3:16" ht="12.75">
+    <row r="67" spans="3:16" ht="13.2">
       <c r="C67" s="35" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -32124,7 +32124,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="68" spans="3:16" ht="12.75">
+    <row r="68" spans="3:16" ht="13.2">
       <c r="C68" s="35" t="str">
         <f t="shared" ref="C68:C99" si="4">""""&amp;A68&amp;""":"""&amp;B68&amp;""","</f>
         <v>"":"",</v>
@@ -32134,7 +32134,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="69" spans="3:16" ht="12.75">
+    <row r="69" spans="3:16" ht="13.2">
       <c r="C69" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32144,7 +32144,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="70" spans="3:16" ht="12.75">
+    <row r="70" spans="3:16" ht="13.2">
       <c r="C70" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32154,7 +32154,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="71" spans="3:16" ht="12.75">
+    <row r="71" spans="3:16" ht="13.2">
       <c r="C71" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32164,7 +32164,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="72" spans="3:16" ht="12.75">
+    <row r="72" spans="3:16" ht="13.2">
       <c r="C72" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32174,7 +32174,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="73" spans="3:16" ht="12.75">
+    <row r="73" spans="3:16" ht="13.2">
       <c r="C73" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32184,7 +32184,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="74" spans="3:16" ht="12.75">
+    <row r="74" spans="3:16" ht="13.2">
       <c r="C74" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32194,7 +32194,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="75" spans="3:16" ht="12.75">
+    <row r="75" spans="3:16" ht="13.2">
       <c r="C75" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32204,7 +32204,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="76" spans="3:16" ht="12.75">
+    <row r="76" spans="3:16" ht="13.2">
       <c r="C76" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32214,7 +32214,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="77" spans="3:16" ht="12.75">
+    <row r="77" spans="3:16" ht="13.2">
       <c r="C77" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32224,7 +32224,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="78" spans="3:16" ht="12.75">
+    <row r="78" spans="3:16" ht="13.2">
       <c r="C78" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32234,7 +32234,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="79" spans="3:16" ht="12.75">
+    <row r="79" spans="3:16" ht="13.2">
       <c r="C79" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32244,7 +32244,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="80" spans="3:16" ht="12.75">
+    <row r="80" spans="3:16" ht="13.2">
       <c r="C80" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32254,7 +32254,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="81" spans="3:16" ht="12.75">
+    <row r="81" spans="3:16" ht="13.2">
       <c r="C81" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32264,7 +32264,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="82" spans="3:16" ht="12.75">
+    <row r="82" spans="3:16" ht="13.2">
       <c r="C82" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32274,7 +32274,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="83" spans="3:16" ht="12.75">
+    <row r="83" spans="3:16" ht="13.2">
       <c r="C83" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32284,7 +32284,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="84" spans="3:16" ht="12.75">
+    <row r="84" spans="3:16" ht="13.2">
       <c r="C84" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32294,7 +32294,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="85" spans="3:16" ht="12.75">
+    <row r="85" spans="3:16" ht="13.2">
       <c r="C85" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32304,7 +32304,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="86" spans="3:16" ht="12.75">
+    <row r="86" spans="3:16" ht="13.2">
       <c r="C86" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32314,7 +32314,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="87" spans="3:16" ht="12.75">
+    <row r="87" spans="3:16" ht="13.2">
       <c r="C87" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32324,7 +32324,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="88" spans="3:16" ht="12.75">
+    <row r="88" spans="3:16" ht="13.2">
       <c r="C88" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32334,7 +32334,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="89" spans="3:16" ht="12.75">
+    <row r="89" spans="3:16" ht="13.2">
       <c r="C89" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32344,7 +32344,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="90" spans="3:16" ht="12.75">
+    <row r="90" spans="3:16" ht="13.2">
       <c r="C90" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32354,7 +32354,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="91" spans="3:16" ht="12.75">
+    <row r="91" spans="3:16" ht="13.2">
       <c r="C91" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32364,7 +32364,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="92" spans="3:16" ht="12.75">
+    <row r="92" spans="3:16" ht="13.2">
       <c r="C92" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32374,7 +32374,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="93" spans="3:16" ht="12.75">
+    <row r="93" spans="3:16" ht="13.2">
       <c r="C93" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32384,7 +32384,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="94" spans="3:16" ht="12.75">
+    <row r="94" spans="3:16" ht="13.2">
       <c r="C94" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32394,7 +32394,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="95" spans="3:16" ht="12.75">
+    <row r="95" spans="3:16" ht="13.2">
       <c r="C95" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32404,7 +32404,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="96" spans="3:16" ht="12.75">
+    <row r="96" spans="3:16" ht="13.2">
       <c r="C96" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32414,7 +32414,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="97" spans="3:16" ht="12.75">
+    <row r="97" spans="3:16" ht="13.2">
       <c r="C97" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32424,7 +32424,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="98" spans="3:16" ht="12.75">
+    <row r="98" spans="3:16" ht="13.2">
       <c r="C98" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32434,7 +32434,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="99" spans="3:16" ht="12.75">
+    <row r="99" spans="3:16" ht="13.2">
       <c r="C99" s="35" t="str">
         <f t="shared" si="4"/>
         <v>"":"",</v>
@@ -32444,7 +32444,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="100" spans="3:16" ht="12.75">
+    <row r="100" spans="3:16" ht="13.2">
       <c r="C100" s="35" t="str">
         <f t="shared" ref="C100:C131" si="6">""""&amp;A100&amp;""":"""&amp;B100&amp;""","</f>
         <v>"":"",</v>
@@ -32454,7 +32454,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="101" spans="3:16" ht="12.75">
+    <row r="101" spans="3:16" ht="13.2">
       <c r="C101" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32464,7 +32464,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="102" spans="3:16" ht="12.75">
+    <row r="102" spans="3:16" ht="13.2">
       <c r="C102" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32474,7 +32474,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="103" spans="3:16" ht="12.75">
+    <row r="103" spans="3:16" ht="13.2">
       <c r="C103" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32484,7 +32484,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="104" spans="3:16" ht="12.75">
+    <row r="104" spans="3:16" ht="13.2">
       <c r="C104" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32494,7 +32494,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="105" spans="3:16" ht="12.75">
+    <row r="105" spans="3:16" ht="13.2">
       <c r="C105" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32504,7 +32504,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="106" spans="3:16" ht="12.75">
+    <row r="106" spans="3:16" ht="13.2">
       <c r="C106" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32514,7 +32514,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="107" spans="3:16" ht="12.75">
+    <row r="107" spans="3:16" ht="13.2">
       <c r="C107" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32524,7 +32524,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="108" spans="3:16" ht="12.75">
+    <row r="108" spans="3:16" ht="13.2">
       <c r="C108" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32534,7 +32534,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="109" spans="3:16" ht="12.75">
+    <row r="109" spans="3:16" ht="13.2">
       <c r="C109" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32544,7 +32544,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="110" spans="3:16" ht="12.75">
+    <row r="110" spans="3:16" ht="13.2">
       <c r="C110" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32554,7 +32554,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="111" spans="3:16" ht="12.75">
+    <row r="111" spans="3:16" ht="13.2">
       <c r="C111" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32564,7 +32564,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="112" spans="3:16" ht="12.75">
+    <row r="112" spans="3:16" ht="13.2">
       <c r="C112" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32574,7 +32574,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="113" spans="3:16" ht="12.75">
+    <row r="113" spans="3:16" ht="13.2">
       <c r="C113" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32584,7 +32584,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="114" spans="3:16" ht="12.75">
+    <row r="114" spans="3:16" ht="13.2">
       <c r="C114" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32594,7 +32594,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="115" spans="3:16" ht="12.75">
+    <row r="115" spans="3:16" ht="13.2">
       <c r="C115" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32604,7 +32604,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="116" spans="3:16" ht="12.75">
+    <row r="116" spans="3:16" ht="13.2">
       <c r="C116" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32614,7 +32614,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="117" spans="3:16" ht="12.75">
+    <row r="117" spans="3:16" ht="13.2">
       <c r="C117" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32624,7 +32624,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="118" spans="3:16" ht="12.75">
+    <row r="118" spans="3:16" ht="13.2">
       <c r="C118" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32634,7 +32634,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="119" spans="3:16" ht="12.75">
+    <row r="119" spans="3:16" ht="13.2">
       <c r="C119" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32644,7 +32644,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="120" spans="3:16" ht="12.75">
+    <row r="120" spans="3:16" ht="13.2">
       <c r="C120" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32654,7 +32654,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="121" spans="3:16" ht="12.75">
+    <row r="121" spans="3:16" ht="13.2">
       <c r="C121" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32664,7 +32664,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="122" spans="3:16" ht="12.75">
+    <row r="122" spans="3:16" ht="13.2">
       <c r="C122" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32674,7 +32674,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="123" spans="3:16" ht="12.75">
+    <row r="123" spans="3:16" ht="13.2">
       <c r="C123" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32684,7 +32684,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="124" spans="3:16" ht="12.75">
+    <row r="124" spans="3:16" ht="13.2">
       <c r="C124" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32694,7 +32694,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="125" spans="3:16" ht="12.75">
+    <row r="125" spans="3:16" ht="13.2">
       <c r="C125" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32704,7 +32704,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="126" spans="3:16" ht="12.75">
+    <row r="126" spans="3:16" ht="13.2">
       <c r="C126" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32714,7 +32714,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="127" spans="3:16" ht="12.75">
+    <row r="127" spans="3:16" ht="13.2">
       <c r="C127" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32724,7 +32724,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="128" spans="3:16" ht="12.75">
+    <row r="128" spans="3:16" ht="13.2">
       <c r="C128" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32734,7 +32734,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="129" spans="3:16" ht="12.75">
+    <row r="129" spans="3:16" ht="13.2">
       <c r="C129" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32744,7 +32744,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="130" spans="3:16" ht="12.75">
+    <row r="130" spans="3:16" ht="13.2">
       <c r="C130" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32754,7 +32754,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="131" spans="3:16" ht="12.75">
+    <row r="131" spans="3:16" ht="13.2">
       <c r="C131" s="35" t="str">
         <f t="shared" si="6"/>
         <v>"":"",</v>
@@ -32764,7 +32764,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="132" spans="3:16" ht="12.75">
+    <row r="132" spans="3:16" ht="13.2">
       <c r="C132" s="35" t="str">
         <f t="shared" ref="C132:C163" si="8">""""&amp;A132&amp;""":"""&amp;B132&amp;""","</f>
         <v>"":"",</v>
@@ -32774,7 +32774,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="133" spans="3:16" ht="12.75">
+    <row r="133" spans="3:16" ht="13.2">
       <c r="C133" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32784,7 +32784,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="134" spans="3:16" ht="12.75">
+    <row r="134" spans="3:16" ht="13.2">
       <c r="C134" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32794,7 +32794,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="135" spans="3:16" ht="12.75">
+    <row r="135" spans="3:16" ht="13.2">
       <c r="C135" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32804,7 +32804,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="136" spans="3:16" ht="12.75">
+    <row r="136" spans="3:16" ht="13.2">
       <c r="C136" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32814,7 +32814,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="137" spans="3:16" ht="12.75">
+    <row r="137" spans="3:16" ht="13.2">
       <c r="C137" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32824,7 +32824,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="138" spans="3:16" ht="12.75">
+    <row r="138" spans="3:16" ht="13.2">
       <c r="C138" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32834,7 +32834,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="139" spans="3:16" ht="12.75">
+    <row r="139" spans="3:16" ht="13.2">
       <c r="C139" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32844,7 +32844,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="140" spans="3:16" ht="12.75">
+    <row r="140" spans="3:16" ht="13.2">
       <c r="C140" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32854,7 +32854,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="141" spans="3:16" ht="12.75">
+    <row r="141" spans="3:16" ht="13.2">
       <c r="C141" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32864,7 +32864,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="142" spans="3:16" ht="12.75">
+    <row r="142" spans="3:16" ht="13.2">
       <c r="C142" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32874,7 +32874,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="143" spans="3:16" ht="12.75">
+    <row r="143" spans="3:16" ht="13.2">
       <c r="C143" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32884,7 +32884,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="144" spans="3:16" ht="12.75">
+    <row r="144" spans="3:16" ht="13.2">
       <c r="C144" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32894,7 +32894,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="145" spans="3:16" ht="12.75">
+    <row r="145" spans="3:16" ht="13.2">
       <c r="C145" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32904,7 +32904,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="146" spans="3:16" ht="12.75">
+    <row r="146" spans="3:16" ht="13.2">
       <c r="C146" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32914,7 +32914,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="147" spans="3:16" ht="12.75">
+    <row r="147" spans="3:16" ht="13.2">
       <c r="C147" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32924,7 +32924,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="148" spans="3:16" ht="12.75">
+    <row r="148" spans="3:16" ht="13.2">
       <c r="C148" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32934,7 +32934,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="149" spans="3:16" ht="12.75">
+    <row r="149" spans="3:16" ht="13.2">
       <c r="C149" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32944,7 +32944,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="150" spans="3:16" ht="12.75">
+    <row r="150" spans="3:16" ht="13.2">
       <c r="C150" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32954,7 +32954,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="151" spans="3:16" ht="12.75">
+    <row r="151" spans="3:16" ht="13.2">
       <c r="C151" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32964,7 +32964,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="152" spans="3:16" ht="12.75">
+    <row r="152" spans="3:16" ht="13.2">
       <c r="C152" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32974,7 +32974,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="153" spans="3:16" ht="12.75">
+    <row r="153" spans="3:16" ht="13.2">
       <c r="C153" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32984,7 +32984,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="154" spans="3:16" ht="12.75">
+    <row r="154" spans="3:16" ht="13.2">
       <c r="C154" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -32994,7 +32994,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="155" spans="3:16" ht="12.75">
+    <row r="155" spans="3:16" ht="13.2">
       <c r="C155" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33004,7 +33004,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="156" spans="3:16" ht="12.75">
+    <row r="156" spans="3:16" ht="13.2">
       <c r="C156" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33014,7 +33014,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="157" spans="3:16" ht="12.75">
+    <row r="157" spans="3:16" ht="13.2">
       <c r="C157" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33024,7 +33024,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="158" spans="3:16" ht="12.75">
+    <row r="158" spans="3:16" ht="13.2">
       <c r="C158" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33034,7 +33034,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="159" spans="3:16" ht="12.75">
+    <row r="159" spans="3:16" ht="13.2">
       <c r="C159" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33044,7 +33044,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="160" spans="3:16" ht="12.75">
+    <row r="160" spans="3:16" ht="13.2">
       <c r="C160" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33054,7 +33054,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="161" spans="3:16" ht="12.75">
+    <row r="161" spans="3:16" ht="13.2">
       <c r="C161" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33064,7 +33064,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="162" spans="3:16" ht="12.75">
+    <row r="162" spans="3:16" ht="13.2">
       <c r="C162" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33074,7 +33074,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="163" spans="3:16" ht="12.75">
+    <row r="163" spans="3:16" ht="13.2">
       <c r="C163" s="35" t="str">
         <f t="shared" si="8"/>
         <v>"":"",</v>
@@ -33084,7 +33084,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="164" spans="3:16" ht="12.75">
+    <row r="164" spans="3:16" ht="13.2">
       <c r="C164" s="35" t="str">
         <f t="shared" ref="C164:C195" si="10">""""&amp;A164&amp;""":"""&amp;B164&amp;""","</f>
         <v>"":"",</v>
@@ -33094,7 +33094,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="165" spans="3:16" ht="12.75">
+    <row r="165" spans="3:16" ht="13.2">
       <c r="C165" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33104,7 +33104,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="166" spans="3:16" ht="12.75">
+    <row r="166" spans="3:16" ht="13.2">
       <c r="C166" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33114,7 +33114,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="167" spans="3:16" ht="12.75">
+    <row r="167" spans="3:16" ht="13.2">
       <c r="C167" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33124,7 +33124,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="168" spans="3:16" ht="12.75">
+    <row r="168" spans="3:16" ht="13.2">
       <c r="C168" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33134,7 +33134,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="169" spans="3:16" ht="12.75">
+    <row r="169" spans="3:16" ht="13.2">
       <c r="C169" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33144,7 +33144,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="170" spans="3:16" ht="12.75">
+    <row r="170" spans="3:16" ht="13.2">
       <c r="C170" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33154,7 +33154,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="171" spans="3:16" ht="12.75">
+    <row r="171" spans="3:16" ht="13.2">
       <c r="C171" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33164,7 +33164,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="172" spans="3:16" ht="12.75">
+    <row r="172" spans="3:16" ht="13.2">
       <c r="C172" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33174,7 +33174,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="173" spans="3:16" ht="12.75">
+    <row r="173" spans="3:16" ht="13.2">
       <c r="C173" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33184,7 +33184,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="174" spans="3:16" ht="12.75">
+    <row r="174" spans="3:16" ht="13.2">
       <c r="C174" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33194,7 +33194,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="175" spans="3:16" ht="12.75">
+    <row r="175" spans="3:16" ht="13.2">
       <c r="C175" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33204,7 +33204,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="176" spans="3:16" ht="12.75">
+    <row r="176" spans="3:16" ht="13.2">
       <c r="C176" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33214,7 +33214,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="177" spans="3:16" ht="12.75">
+    <row r="177" spans="3:16" ht="13.2">
       <c r="C177" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33224,7 +33224,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="178" spans="3:16" ht="12.75">
+    <row r="178" spans="3:16" ht="13.2">
       <c r="C178" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33234,7 +33234,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="179" spans="3:16" ht="12.75">
+    <row r="179" spans="3:16" ht="13.2">
       <c r="C179" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33244,7 +33244,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="180" spans="3:16" ht="12.75">
+    <row r="180" spans="3:16" ht="13.2">
       <c r="C180" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33254,7 +33254,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="181" spans="3:16" ht="12.75">
+    <row r="181" spans="3:16" ht="13.2">
       <c r="C181" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33264,7 +33264,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="182" spans="3:16" ht="12.75">
+    <row r="182" spans="3:16" ht="13.2">
       <c r="C182" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33274,7 +33274,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="183" spans="3:16" ht="12.75">
+    <row r="183" spans="3:16" ht="13.2">
       <c r="C183" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33284,7 +33284,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="184" spans="3:16" ht="12.75">
+    <row r="184" spans="3:16" ht="13.2">
       <c r="C184" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33294,7 +33294,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="185" spans="3:16" ht="12.75">
+    <row r="185" spans="3:16" ht="13.2">
       <c r="C185" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33304,7 +33304,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="186" spans="3:16" ht="12.75">
+    <row r="186" spans="3:16" ht="13.2">
       <c r="C186" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33314,7 +33314,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="187" spans="3:16" ht="12.75">
+    <row r="187" spans="3:16" ht="13.2">
       <c r="C187" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33324,7 +33324,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="188" spans="3:16" ht="12.75">
+    <row r="188" spans="3:16" ht="13.2">
       <c r="C188" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33334,7 +33334,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="189" spans="3:16" ht="12.75">
+    <row r="189" spans="3:16" ht="13.2">
       <c r="C189" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33344,7 +33344,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="190" spans="3:16" ht="12.75">
+    <row r="190" spans="3:16" ht="13.2">
       <c r="C190" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33354,7 +33354,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="191" spans="3:16" ht="12.75">
+    <row r="191" spans="3:16" ht="13.2">
       <c r="C191" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33364,7 +33364,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="192" spans="3:16" ht="12.75">
+    <row r="192" spans="3:16" ht="13.2">
       <c r="C192" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33374,7 +33374,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="193" spans="3:16" ht="12.75">
+    <row r="193" spans="3:16" ht="13.2">
       <c r="C193" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33384,7 +33384,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="194" spans="3:16" ht="12.75">
+    <row r="194" spans="3:16" ht="13.2">
       <c r="C194" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33394,7 +33394,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="195" spans="3:16" ht="12.75">
+    <row r="195" spans="3:16" ht="13.2">
       <c r="C195" s="35" t="str">
         <f t="shared" si="10"/>
         <v>"":"",</v>
@@ -33404,7 +33404,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="196" spans="3:16" ht="12.75">
+    <row r="196" spans="3:16" ht="13.2">
       <c r="C196" s="35" t="str">
         <f t="shared" ref="C196:C200" si="12">""""&amp;A196&amp;""":"""&amp;B196&amp;""","</f>
         <v>"":"",</v>
@@ -33414,7 +33414,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="197" spans="3:16" ht="12.75">
+    <row r="197" spans="3:16" ht="13.2">
       <c r="C197" s="35" t="str">
         <f t="shared" si="12"/>
         <v>"":"",</v>
@@ -33424,7 +33424,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="198" spans="3:16" ht="12.75">
+    <row r="198" spans="3:16" ht="13.2">
       <c r="C198" s="35" t="str">
         <f t="shared" si="12"/>
         <v>"":"",</v>
@@ -33434,7 +33434,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="199" spans="3:16" ht="12.75">
+    <row r="199" spans="3:16" ht="13.2">
       <c r="C199" s="35" t="str">
         <f t="shared" si="12"/>
         <v>"":"",</v>
@@ -33444,7 +33444,7 @@
         <v>''''''</v>
       </c>
     </row>
-    <row r="200" spans="3:16" ht="12.75">
+    <row r="200" spans="3:16" ht="13.2">
       <c r="C200" s="35" t="str">
         <f t="shared" si="12"/>
         <v>"":"",</v>
